--- a/WR22.xlsx
+++ b/WR22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luker\Downloads\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FDE9DB05-61F9-429D-A60C-413706C4956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5CA55763-5428-4F4C-964B-FBE343C13CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3E1AB0E6-F796-45E4-9A14-51A2BBA0F825}"/>
   </bookViews>
@@ -2421,7 +2421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16C0D57-2563-4EA1-B7DF-D4673A87DFA6}">
   <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -18194,8 +18194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26EE3C90-E7C2-47F5-95DF-4F6BC1BC8DA0}">
   <dimension ref="A1:T231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
